--- a/tests/data/excel_import_products_test.xlsx
+++ b/tests/data/excel_import_products_test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460"/>
@@ -21,18 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
-    <t>product id</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>vendor</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -192,10 +180,22 @@
     <t>EX 4200, 24-port 10/100/1000BaseT PoE-plus + 930W AC PS, includes 50cm VC cable</t>
   </si>
   <si>
-    <t>list price</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>List Price</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Vendor</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -610,268 +610,268 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>8795</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>7695</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>5055</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>6155</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>4175</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>7255</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>6155</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>3515</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>300</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C16">
         <v>16000</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G16" s="1"/>
       <c r="I16" s="1"/>
@@ -880,181 +880,181 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>16300</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>4615</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>2855</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>3735</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>2085</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>1315</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>1315</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C25">
         <v>15500</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C26">
         <v>6200</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
